--- a/results/MVSE/dblp/MVSE_dblp<l05><WL>91.96.xlsx
+++ b/results/MVSE/dblp/MVSE_dblp<l05><WL>91.96.xlsx
@@ -586,7 +586,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_46_59', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -654,7 +656,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_05_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -722,7 +726,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_59_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -790,7 +796,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_04_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -835,7 +843,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>4096</v>
+      </c>
       <c r="L6" t="n">
         <v>2</v>
       </c>
@@ -926,7 +936,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_25_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -994,7 +1006,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_23_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1062,7 +1076,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_44_56', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
